--- a/data/pricelists/nix_pricelist.xlsx
+++ b/data/pricelists/nix_pricelist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\GolandProjects\StartupPCConfigurator\data\pricelists\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB94E86-2431-4C0B-9E17-CD4FECDD4C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C441EEE5-DEBB-4750-953F-309D3148D3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6050" yWindow="3890" windowWidth="19200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6170" yWindow="3890" windowWidth="19200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="14">
   <si>
     <t>ComponentID</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>Nix</t>
+  </si>
+  <si>
+    <t>https://www.nix.ru/autocatalog/motherboards_asustek/ASUS-PRIME-B660-PLUS-D4-RTL-LGA1700-B660-2xPCI-E-Dsub-plus-HDMI-plus-DP-25GbLAN-SATA-ATX-4DDR4_574498.html</t>
+  </si>
+  <si>
+    <t>https://www.nix.ru/autocatalog/motherboards_msi/MSI-MAG-B550-TOMAHAWK-MAX-WIFI-RTL-AM4-B550-2xPCI-E-HDMI-plus-DP25GbLAN-plus-WiFi-plus-BT-SATA-ATX-4DDR4_679259.html</t>
   </si>
 </sst>
 </file>
@@ -439,7 +445,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -575,7 +581,7 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>14358</v>
+        <v>16377</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -584,7 +590,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -595,7 +601,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>20329</v>
+        <v>15890</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -604,7 +610,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -624,7 +630,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -773,6 +779,9 @@
     <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="F5:F16" r:id="rId4" display="https://www.dns-shop.ru/product/ef42e95e5af71b80/videokarta-palit-geforce-rtx-3060-dual-lhr-ne63060019k9-190ad/" xr:uid="{1B875DE0-4E13-4E24-8955-EB755165EB67}"/>
+    <hyperlink ref="F9" r:id="rId5" xr:uid="{6798E2B7-CB14-4B00-A3DC-749C218E90FA}"/>
+    <hyperlink ref="F8" r:id="rId6" xr:uid="{DC8FA4D9-60E5-41AE-8592-3AE8C986C5F5}"/>
+    <hyperlink ref="F7" r:id="rId7" xr:uid="{62245858-2736-44F6-B45A-FD4920A01D50}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/pricelists/nix_pricelist.xlsx
+++ b/data/pricelists/nix_pricelist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\GolandProjects\StartupPCConfigurator\data\pricelists\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C441EEE5-DEBB-4750-953F-309D3148D3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1901A64F-88C7-4DDD-A365-4A23B5A3A19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6170" yWindow="3890" windowWidth="19200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="19200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="25">
   <si>
     <t>ComponentID</t>
   </si>
@@ -62,6 +62,39 @@
   </si>
   <si>
     <t>https://www.nix.ru/autocatalog/motherboards_msi/MSI-MAG-B550-TOMAHAWK-MAX-WIFI-RTL-AM4-B550-2xPCI-E-HDMI-plus-DP25GbLAN-plus-WiFi-plus-BT-SATA-ATX-4DDR4_679259.html</t>
+  </si>
+  <si>
+    <t>Нет в наличии</t>
+  </si>
+  <si>
+    <t>https://www.nix.ru/autocatalog/hdd_western_digital/HDD-1-Tb-SATA-6Gb-s-Western-Digital-Blue-WD10EZEX-35-7200rpm-64Mb_140294.html</t>
+  </si>
+  <si>
+    <t>https://www.nix.ru/autocatalog/power_supply_seasonic/Blok-pitaniya-Seasonic-FOCUS-GX-650-SSR-650FX-650W-ATX-24-plus-4x4-plus-4x6-8pin-Cable-Management_483695.html</t>
+  </si>
+  <si>
+    <t>https://www.nix.ru/autocatalog/power_supply_corsair/Blok-pitaniya-Corsair-RM750x-CP-9020092-EU-750W-ATX-24-plus-2x4-plus-4x6-8pin-Cable-Management_219343.html</t>
+  </si>
+  <si>
+    <t>https://www.nix.ru/autocatalog/power_supply_be_quiet/Blok-pitaniya-be-quiet-PURE-POWER-12-M-L12-M-850W-850W-ATX-24-plus-4x4-plus-16-plus-4x6-8pin-Cable-Management-BN344_731953.html</t>
+  </si>
+  <si>
+    <t>https://www.nix.ru/autocatalog/power_supply_corsair/Blok-pitaniya-Corsair-RM750x-CP-9020179-EU-750W-ATX-24-plus-4x4-plus-4x6-8pin-Cable-Management_347445.html</t>
+  </si>
+  <si>
+    <t>https://www.nix.ru/autocatalog/power_supply_coolermaster/Blok-pitaniya-Cooler-Master-MPY-8501-SFHAGV-EU-850W-ATX-24-plus-2x4-plus-8-plus-4x6-8pin-Cable-Management_498341.html</t>
+  </si>
+  <si>
+    <t>https://www.nix.ru/autocatalog/power_supply_seasonic/Blok-pitaniya-Seasonic-Prime-Ultra-Titanium-1000-SSR-1000TR-1000W-24-plus-4x4-plus-8x6-8pin-Cable-Management_399188.html</t>
+  </si>
+  <si>
+    <t>https://www.nix.ru/autocatalog/power_supply_thermaltake/Blok-pitaniya-Thermaltake-PS-TPD-1200FNFAGE-4-Toughpower-GF3-1200W-24-plus-4x4-plus-16-plus-4x6-8pin-Cable-Management_748271.html</t>
+  </si>
+  <si>
+    <t>https://www.nix.ru/autocatalog/power_supply_other/Blok-pitaniya-MSI-MPG-A850G-PCIE5-850W-ATX-24-plus-4x4-plus-16-plus-6x6-8pin-Cable-Management_739912.html</t>
+  </si>
+  <si>
+    <t>https://www.nix.ru/autocatalog/cases_NZXT/Korpus-NZXT-H510-V2-CA-H52FB-01-chernyj-bez-BP-ATX-2x120mm-3x140mm-1xUSB30-audio-bott-PSU_616555.html</t>
   </si>
 </sst>
 </file>
@@ -442,14 +475,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="102.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -581,7 +615,7 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>16377</v>
+        <v>16351</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -601,7 +635,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>15890</v>
+        <v>15378</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -621,7 +655,7 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>4594</v>
+        <v>62451</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -641,7 +675,7 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>7408</v>
+        <v>13142</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -661,7 +695,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>18315</v>
+        <v>13432</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -681,7 +715,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>13340</v>
+        <v>16351</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -690,7 +724,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -701,7 +735,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>10860</v>
+        <v>15378</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -710,7 +744,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -721,7 +755,7 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>2847</v>
+        <v>15150</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -741,7 +775,7 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>3104</v>
+        <v>23558</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
@@ -761,7 +795,7 @@
         <v>11</v>
       </c>
       <c r="C16">
-        <v>12009</v>
+        <v>13305</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -771,6 +805,503 @@
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>4158</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>6036</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>9391</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>16029</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>31305</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>13089</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>8458</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>7935</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>7831</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>8430</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>8022</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>11773</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>10912</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>26597</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>5518</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>6225</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>4606</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>4592</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>8011</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>5265</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>24334</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>25755</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>17296</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>5541</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -778,10 +1309,22 @@
     <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F5:F16" r:id="rId4" display="https://www.dns-shop.ru/product/ef42e95e5af71b80/videokarta-palit-geforce-rtx-3060-dual-lhr-ne63060019k9-190ad/" xr:uid="{1B875DE0-4E13-4E24-8955-EB755165EB67}"/>
-    <hyperlink ref="F9" r:id="rId5" xr:uid="{6798E2B7-CB14-4B00-A3DC-749C218E90FA}"/>
-    <hyperlink ref="F8" r:id="rId6" xr:uid="{DC8FA4D9-60E5-41AE-8592-3AE8C986C5F5}"/>
-    <hyperlink ref="F7" r:id="rId7" xr:uid="{62245858-2736-44F6-B45A-FD4920A01D50}"/>
+    <hyperlink ref="F9" r:id="rId4" xr:uid="{6798E2B7-CB14-4B00-A3DC-749C218E90FA}"/>
+    <hyperlink ref="F8" r:id="rId5" xr:uid="{DC8FA4D9-60E5-41AE-8592-3AE8C986C5F5}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{62245858-2736-44F6-B45A-FD4920A01D50}"/>
+    <hyperlink ref="F32" r:id="rId7" xr:uid="{C9132931-1454-4C46-9891-0FBE1A021A4B}"/>
+    <hyperlink ref="F33" r:id="rId8" xr:uid="{56C418D1-406A-41AC-8DB5-4DF303527E82}"/>
+    <hyperlink ref="F34" r:id="rId9" xr:uid="{C50F6141-EE6A-47A6-8A3D-87E6C3D1F5D9}"/>
+    <hyperlink ref="F35" r:id="rId10" xr:uid="{4081F010-CA2A-4756-ACD4-B6C474661349}"/>
+    <hyperlink ref="F36" r:id="rId11" xr:uid="{992EF371-079E-4CF9-B0A0-5D0232913B07}"/>
+    <hyperlink ref="F37" r:id="rId12" xr:uid="{DE69443D-9BC5-4308-99FB-CBC032EA30CC}"/>
+    <hyperlink ref="F38" r:id="rId13" xr:uid="{C33FACC0-9DE5-44CE-8820-199B0A56FA8D}"/>
+    <hyperlink ref="F39" r:id="rId14" xr:uid="{214B3C5B-89BC-4398-A267-3261BDEC09E1}"/>
+    <hyperlink ref="F40" r:id="rId15" xr:uid="{7AD992F6-6551-4F1D-A841-F63573A1EF20}"/>
+    <hyperlink ref="F41" r:id="rId16" xr:uid="{2B05D448-0D47-4246-AC64-FA638E789D65}"/>
+    <hyperlink ref="F17:F31" r:id="rId17" display="https://www.dns-shop.ru/product/ef42e95e5af71b80/videokarta-palit-geforce-rtx-3060-dual-lhr-ne63060019k9-190ad/" xr:uid="{66CBB96B-5957-4229-97B4-7A4D004D0DC5}"/>
+    <hyperlink ref="F13" r:id="rId18" xr:uid="{0D56DC7C-4E45-43F8-916A-2E1844442238}"/>
+    <hyperlink ref="F12" r:id="rId19" xr:uid="{28B7E8D6-DBAE-4B31-924C-CCD7E8198827}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
